--- a/meta_stra_framwork/result/diff/score.xlsx
+++ b/meta_stra_framwork/result/diff/score.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']</t>
+  </si>
   <si>
     <t>600000.XSHG</t>
   </si>
@@ -377,20 +383,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.5587653617016165</v>
+      </c>
+      <c r="C2">
+        <v>0.4610412150882581</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.5587653617016165</v>
+      </c>
+      <c r="C3">
+        <v>0.4610412150882581</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/diff/score.xlsx
+++ b/meta_stra_framwork/result/diff/score.xlsx
@@ -14,12 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
   </si>
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']</t>
   </si>
   <si>
     <t>600000.XSHG</t>
@@ -383,40 +410,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.5587653617016165</v>
+        <v>0.5706337447078442</v>
       </c>
       <c r="C2">
-        <v>0.4610412150882581</v>
+        <v>0.653367949916935</v>
+      </c>
+      <c r="D2">
+        <v>0.5031254628580364</v>
+      </c>
+      <c r="E2">
+        <v>0.453047796765566</v>
+      </c>
+      <c r="F2">
+        <v>0.7007291099210259</v>
+      </c>
+      <c r="G2">
+        <v>0.4169636064070522</v>
+      </c>
+      <c r="H2">
+        <v>0.4392950726968479</v>
+      </c>
+      <c r="I2">
+        <v>0.5362827452986252</v>
+      </c>
+      <c r="J2">
+        <v>0.528383734775831</v>
+      </c>
+      <c r="K2">
+        <v>0.5622879706356696</v>
+      </c>
+      <c r="L2">
+        <v>0.5835536004817404</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0.5587653617016165</v>
+        <v>0.5706337447078442</v>
       </c>
       <c r="C3">
-        <v>0.4610412150882581</v>
+        <v>0.653367949916935</v>
+      </c>
+      <c r="D3">
+        <v>0.5031254628580364</v>
+      </c>
+      <c r="E3">
+        <v>0.453047796765566</v>
+      </c>
+      <c r="F3">
+        <v>0.7007291099210259</v>
+      </c>
+      <c r="G3">
+        <v>0.4169636064070522</v>
+      </c>
+      <c r="H3">
+        <v>0.4392950726968479</v>
+      </c>
+      <c r="I3">
+        <v>0.5362827452986252</v>
+      </c>
+      <c r="J3">
+        <v>0.528383734775831</v>
+      </c>
+      <c r="K3">
+        <v>0.5622879706356696</v>
+      </c>
+      <c r="L3">
+        <v>0.5835536004817404</v>
       </c>
     </row>
   </sheetData>
